--- a/data/trans_orig/P19C03-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C03-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F66A77E7-3919-4125-BCB3-3A38050B0344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40989E2C-7661-4323-90E6-8E55FE2BEA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{6E0DC508-2EFE-4243-A83C-628CC614ED28}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E2ACFAE2-866F-48B0-8376-8F0500D41ED9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="625">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2007 (Tasa respuesta: 78,1%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>35,98%</t>
   </si>
   <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
   </si>
   <si>
     <t>41,03%</t>
   </si>
   <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
   </si>
   <si>
     <t>38,56%</t>
   </si>
   <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>64,02%</t>
   </si>
   <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
   </si>
   <si>
     <t>58,97%</t>
   </si>
   <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
   </si>
   <si>
     <t>61,44%</t>
   </si>
   <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1768 +140,1780 @@
     <t>33,65%</t>
   </si>
   <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
     <t>28,81%</t>
   </si>
   <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2012 (Tasa respuesta: 86,78%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
   </si>
   <si>
     <t>26,12%</t>
   </si>
   <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
   </si>
   <si>
     <t>73,88%</t>
   </si>
   <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>31,52%</t>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2015 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2023 (Tasa respuesta: 96,85%)</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
   </si>
   <si>
     <t>25,54%</t>
   </si>
   <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
   </si>
   <si>
     <t>74,46%</t>
   </si>
   <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2012 (Tasa respuesta: 86,78%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2023 (Tasa respuesta: 96,85%)</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
+    <t>81,32%</t>
   </si>
   <si>
     <t>75,59%</t>
   </si>
   <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
   </si>
   <si>
     <t>17,91%</t>
   </si>
   <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
+    <t>14,13%</t>
   </si>
   <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
   </si>
   <si>
     <t>15,95%</t>
   </si>
   <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
   </si>
   <si>
     <t>82,09%</t>
   </si>
   <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
+    <t>85,87%</t>
   </si>
   <si>
     <t>85,72%</t>
   </si>
   <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
   </si>
   <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
   </si>
   <si>
     <t>18,61%</t>
   </si>
   <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
   </si>
   <si>
     <t>19,69%</t>
   </si>
   <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
   </si>
   <si>
     <t>19,23%</t>
   </si>
   <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
   </si>
   <si>
     <t>81,39%</t>
   </si>
   <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
   </si>
   <si>
     <t>80,31%</t>
   </si>
   <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
   </si>
   <si>
     <t>80,77%</t>
   </si>
   <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
   </si>
   <si>
     <t>21,19%</t>
   </si>
   <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
+    <t>16,41%</t>
   </si>
   <si>
     <t>22,29%</t>
   </si>
   <si>
+    <t>26,74%</t>
+  </si>
+  <si>
     <t>21,79%</t>
   </si>
   <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
   </si>
   <si>
     <t>78,81%</t>
   </si>
   <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
+    <t>83,59%</t>
   </si>
   <si>
     <t>77,71%</t>
   </si>
   <si>
+    <t>73,26%</t>
+  </si>
+  <si>
     <t>78,21%</t>
   </si>
   <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
   </si>
   <si>
     <t>23,09%</t>
   </si>
   <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
   </si>
   <si>
     <t>16,26%</t>
   </si>
   <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
   </si>
   <si>
     <t>19,65%</t>
   </si>
   <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
   </si>
   <si>
     <t>76,91%</t>
   </si>
   <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
   </si>
   <si>
     <t>83,74%</t>
   </si>
   <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
   </si>
   <si>
     <t>80,35%</t>
   </si>
   <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
   </si>
   <si>
     <t>23,21%</t>
   </si>
   <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
+    <t>27,23%</t>
   </si>
   <si>
     <t>17,65%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
+    <t>11,16%</t>
   </si>
   <si>
     <t>20,08%</t>
   </si>
   <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
   </si>
   <si>
     <t>76,79%</t>
   </si>
   <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
+    <t>72,77%</t>
   </si>
   <si>
     <t>82,35%</t>
   </si>
   <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
+    <t>88,84%</t>
   </si>
   <si>
     <t>79,92%</t>
   </si>
   <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
   </si>
   <si>
     <t>12,05%</t>
   </si>
   <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
   </si>
   <si>
     <t>11,04%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
   </si>
   <si>
     <t>89,98%</t>
   </si>
   <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
   </si>
   <si>
     <t>87,95%</t>
   </si>
   <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
   </si>
   <si>
     <t>88,96%</t>
   </si>
   <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
   </si>
   <si>
     <t>18,73%</t>
   </si>
   <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
   </si>
   <si>
     <t>17,38%</t>
   </si>
   <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
   </si>
   <si>
     <t>18,01%</t>
   </si>
   <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
   </si>
   <si>
     <t>81,27%</t>
   </si>
   <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
   </si>
   <si>
     <t>82,62%</t>
   </si>
   <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
   </si>
   <si>
     <t>81,99%</t>
   </si>
   <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
   </si>
 </sst>
 </file>
@@ -2313,7 +2325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F9C8FD-25E4-446B-9F85-CFADD8810D8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E6DB8F-6BA0-47A8-8D12-2ECFFADB0EA1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3558,7 +3570,7 @@
         <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3585,13 @@
         <v>364084</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>366</v>
@@ -3588,13 +3600,13 @@
         <v>383534</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>727</v>
@@ -3603,13 +3615,13 @@
         <v>747617</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3689,13 @@
         <v>784940</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>856</v>
@@ -3692,13 +3704,13 @@
         <v>878804</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1624</v>
@@ -3707,13 +3719,13 @@
         <v>1663744</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3740,13 @@
         <v>1668761</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>1823</v>
@@ -3743,13 +3755,13 @@
         <v>1862133</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>3461</v>
@@ -3758,13 +3770,13 @@
         <v>3530894</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,7 +3832,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3844,7 +3856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9774413-6F5F-4487-991B-4D7F2EB9D3BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4375109E-5062-4ED7-9627-351F1242DED0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3861,7 +3873,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3966,39 +3978,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,39 +4023,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,39 +4068,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,13 +4117,13 @@
         <v>123516</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>91</v>
       </c>
       <c r="H7" s="7">
         <v>127</v>
@@ -4120,13 +4132,13 @@
         <v>135308</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M7" s="7">
         <v>244</v>
@@ -4135,13 +4147,13 @@
         <v>258824</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,10 +4168,10 @@
         <v>282814</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>99</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>194</v>
@@ -4263,10 +4275,10 @@
         <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>83</v>
@@ -4275,13 +4287,13 @@
         <v>87710</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>177</v>
@@ -4290,10 +4302,10 @@
         <v>184655</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>208</v>
@@ -4317,7 +4329,7 @@
         <v>210</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="H11" s="7">
         <v>222</v>
@@ -4326,13 +4338,13 @@
         <v>241042</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M11" s="7">
         <v>417</v>
@@ -4341,13 +4353,13 @@
         <v>437761</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,13 +4427,13 @@
         <v>152521</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>142</v>
@@ -4430,13 +4442,13 @@
         <v>151022</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>287</v>
@@ -4445,13 +4457,13 @@
         <v>303543</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>224</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,13 +4478,13 @@
         <v>411116</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>141</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>406</v>
@@ -4481,13 +4493,13 @@
         <v>441032</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>791</v>
@@ -4496,13 +4508,13 @@
         <v>852148</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4570,13 +4582,13 @@
         <v>60347</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -4585,13 +4597,13 @@
         <v>58207</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -4600,13 +4612,13 @@
         <v>118554</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,13 +4633,13 @@
         <v>131711</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H17" s="7">
         <v>132</v>
@@ -4636,13 +4648,13 @@
         <v>136375</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>253</v>
@@ -4651,13 +4663,13 @@
         <v>268086</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,13 +4737,13 @@
         <v>65940</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H19" s="7">
         <v>69</v>
@@ -4740,13 +4752,13 @@
         <v>70339</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M19" s="7">
         <v>132</v>
@@ -4755,13 +4767,13 @@
         <v>136279</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,13 +4788,13 @@
         <v>184033</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H20" s="7">
         <v>185</v>
@@ -4791,13 +4803,13 @@
         <v>194491</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>360</v>
@@ -4806,13 +4818,13 @@
         <v>378524</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,13 +4892,13 @@
         <v>172383</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>272</v>
+        <v>166</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -4895,13 +4907,13 @@
         <v>173027</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M22" s="7">
         <v>318</v>
@@ -4910,13 +4922,13 @@
         <v>345409</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4943,13 @@
         <v>399921</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>280</v>
+        <v>174</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="H23" s="7">
         <v>414</v>
@@ -4946,13 +4958,13 @@
         <v>452117</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M23" s="7">
         <v>788</v>
@@ -4961,13 +4973,13 @@
         <v>852039</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,13 +5047,13 @@
         <v>202914</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>110</v>
       </c>
       <c r="H25" s="7">
         <v>220</v>
@@ -5050,13 +5062,13 @@
         <v>235105</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="M25" s="7">
         <v>414</v>
@@ -5065,13 +5077,13 @@
         <v>438019</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,13 +5098,13 @@
         <v>430991</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>118</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="H26" s="7">
         <v>426</v>
@@ -5101,13 +5113,13 @@
         <v>467189</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="M26" s="7">
         <v>816</v>
@@ -5116,13 +5128,13 @@
         <v>898180</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5202,13 @@
         <v>874567</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="H28" s="7">
         <v>855</v>
@@ -5205,13 +5217,13 @@
         <v>910717</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>114</v>
+        <v>301</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="M28" s="7">
         <v>1683</v>
@@ -5220,13 +5232,13 @@
         <v>1785284</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5253,13 @@
         <v>2037304</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H29" s="7">
         <v>2059</v>
@@ -5256,28 +5268,28 @@
         <v>2233767</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>123</v>
+        <v>311</v>
       </c>
       <c r="M29" s="7">
         <v>3964</v>
       </c>
       <c r="N29" s="7">
-        <v>4271070</v>
+        <v>4271071</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,7 +5331,7 @@
         <v>5647</v>
       </c>
       <c r="N30" s="7">
-        <v>6056354</v>
+        <v>6056355</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5333,7 +5345,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5357,7 +5369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CA8A14-DCF2-43E8-908F-BCD58CF5728E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5372E76-E488-4F58-92B7-2ED0E1D86925}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5374,7 +5386,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5481,13 +5493,13 @@
         <v>67676</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H4" s="7">
         <v>55</v>
@@ -5496,13 +5508,13 @@
         <v>54729</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="M4" s="7">
         <v>115</v>
@@ -5511,13 +5523,13 @@
         <v>122405</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5544,13 @@
         <v>177542</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H5" s="7">
         <v>184</v>
@@ -5547,13 +5559,13 @@
         <v>191605</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="M5" s="7">
         <v>345</v>
@@ -5562,13 +5574,13 @@
         <v>369146</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,13 +5648,13 @@
         <v>119089</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H7" s="7">
         <v>100</v>
@@ -5651,13 +5663,13 @@
         <v>104825</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>58</v>
+        <v>337</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="M7" s="7">
         <v>213</v>
@@ -5666,13 +5678,13 @@
         <v>223913</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,13 +5699,13 @@
         <v>244076</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>272</v>
@@ -5702,13 +5714,13 @@
         <v>288502</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>68</v>
+        <v>346</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M8" s="7">
         <v>501</v>
@@ -5717,13 +5729,13 @@
         <v>532579</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,13 +5803,13 @@
         <v>80613</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>356</v>
+        <v>202</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H10" s="7">
         <v>77</v>
@@ -5806,13 +5818,13 @@
         <v>73920</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="M10" s="7">
         <v>162</v>
@@ -5821,13 +5833,13 @@
         <v>154533</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,16 +5851,16 @@
         <v>218</v>
       </c>
       <c r="D11" s="7">
-        <v>209893</v>
+        <v>209894</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>363</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H11" s="7">
         <v>228</v>
@@ -5857,13 +5869,13 @@
         <v>233844</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M11" s="7">
         <v>446</v>
@@ -5872,13 +5884,13 @@
         <v>443737</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,7 +5902,7 @@
         <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>290506</v>
+        <v>290507</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5946,13 +5958,13 @@
         <v>59492</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>79</v>
@@ -5961,13 +5973,13 @@
         <v>84286</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M13" s="7">
         <v>136</v>
@@ -5976,13 +5988,13 @@
         <v>143778</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,13 +6009,13 @@
         <v>270555</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H14" s="7">
         <v>244</v>
@@ -6012,13 +6024,13 @@
         <v>264575</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M14" s="7">
         <v>501</v>
@@ -6027,13 +6039,13 @@
         <v>535130</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,13 +6113,13 @@
         <v>28737</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -6116,13 +6128,13 @@
         <v>35021</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -6131,13 +6143,13 @@
         <v>63758</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,13 +6164,13 @@
         <v>90485</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H17" s="7">
         <v>115</v>
@@ -6167,13 +6179,13 @@
         <v>110479</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>399</v>
+        <v>277</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M17" s="7">
         <v>205</v>
@@ -6182,13 +6194,13 @@
         <v>200964</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,13 +6268,13 @@
         <v>52813</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H19" s="7">
         <v>53</v>
@@ -6271,13 +6283,13 @@
         <v>52896</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>104</v>
@@ -6286,13 +6298,13 @@
         <v>105709</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,13 +6319,13 @@
         <v>180802</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="H20" s="7">
         <v>187</v>
@@ -6322,13 +6334,13 @@
         <v>194241</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="M20" s="7">
         <v>366</v>
@@ -6337,10 +6349,10 @@
         <v>375044</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>419</v>
@@ -6414,10 +6426,10 @@
         <v>420</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H22" s="7">
         <v>154</v>
@@ -6426,13 +6438,13 @@
         <v>161096</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="M22" s="7">
         <v>290</v>
@@ -6441,13 +6453,13 @@
         <v>318757</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,13 +6474,13 @@
         <v>284646</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>430</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>431</v>
+        <v>347</v>
       </c>
       <c r="H23" s="7">
         <v>307</v>
@@ -6477,13 +6489,13 @@
         <v>325955</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="M23" s="7">
         <v>557</v>
@@ -6492,13 +6504,13 @@
         <v>610601</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,13 +6578,13 @@
         <v>168523</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="H25" s="7">
         <v>175</v>
@@ -6581,13 +6593,13 @@
         <v>187135</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="M25" s="7">
         <v>336</v>
@@ -6596,13 +6608,13 @@
         <v>355658</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6617,28 +6629,28 @@
         <v>471729</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="H26" s="7">
         <v>460</v>
       </c>
       <c r="I26" s="7">
-        <v>504207</v>
+        <v>504206</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="M26" s="7">
         <v>915</v>
@@ -6647,13 +6659,13 @@
         <v>975935</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6680,7 +6692,7 @@
         <v>635</v>
       </c>
       <c r="I27" s="7">
-        <v>691342</v>
+        <v>691341</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -6721,13 +6733,13 @@
         <v>734604</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>327</v>
+        <v>454</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>71</v>
+        <v>455</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="H28" s="7">
         <v>730</v>
@@ -6736,13 +6748,13 @@
         <v>753907</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>55</v>
+        <v>458</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="M28" s="7">
         <v>1421</v>
@@ -6751,13 +6763,13 @@
         <v>1488511</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>288</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,16 +6781,16 @@
         <v>1839</v>
       </c>
       <c r="D29" s="7">
-        <v>1929730</v>
+        <v>1929729</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>335</v>
+        <v>463</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>81</v>
+        <v>465</v>
       </c>
       <c r="H29" s="7">
         <v>1997</v>
@@ -6787,28 +6799,28 @@
         <v>2113408</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>65</v>
+        <v>468</v>
       </c>
       <c r="M29" s="7">
         <v>3836</v>
       </c>
       <c r="N29" s="7">
-        <v>4043138</v>
+        <v>4043137</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>298</v>
+        <v>470</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6820,7 +6832,7 @@
         <v>2530</v>
       </c>
       <c r="D30" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -6850,7 +6862,7 @@
         <v>5257</v>
       </c>
       <c r="N30" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6864,7 +6876,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6888,7 +6900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72691E7B-C568-4D58-8623-B313B6A8C785}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B150B49-44CC-47E1-B66D-29BF99A59A4C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6905,7 +6917,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7012,13 +7024,13 @@
         <v>37580</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="H4" s="7">
         <v>120</v>
@@ -7027,13 +7039,13 @@
         <v>59178</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="M4" s="7">
         <v>171</v>
@@ -7042,13 +7054,13 @@
         <v>96758</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7063,13 +7075,13 @@
         <v>217690</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="H5" s="7">
         <v>411</v>
@@ -7078,13 +7090,13 @@
         <v>210266</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="M5" s="7">
         <v>677</v>
@@ -7093,13 +7105,13 @@
         <v>427957</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7167,13 +7179,13 @@
         <v>137734</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="H7" s="7">
         <v>144</v>
@@ -7182,13 +7194,13 @@
         <v>118023</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="M7" s="7">
         <v>236</v>
@@ -7197,13 +7209,13 @@
         <v>255757</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,13 +7230,13 @@
         <v>369770</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="H8" s="7">
         <v>552</v>
@@ -7233,13 +7245,13 @@
         <v>422071</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="M8" s="7">
         <v>831</v>
@@ -7248,13 +7260,13 @@
         <v>791841</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,13 +7334,13 @@
         <v>55035</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>501</v>
+        <v>352</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -7337,13 +7349,13 @@
         <v>51155</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="M10" s="7">
         <v>134</v>
@@ -7352,13 +7364,13 @@
         <v>106190</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,13 +7385,13 @@
         <v>252298</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>509</v>
+        <v>361</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="H11" s="7">
         <v>441</v>
@@ -7388,13 +7400,13 @@
         <v>307091</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="M11" s="7">
         <v>728</v>
@@ -7403,13 +7415,13 @@
         <v>559389</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7477,13 +7489,13 @@
         <v>59492</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="H13" s="7">
         <v>101</v>
@@ -7492,13 +7504,13 @@
         <v>83902</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="M13" s="7">
         <v>151</v>
@@ -7507,13 +7519,13 @@
         <v>143394</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,13 +7540,13 @@
         <v>260158</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="H14" s="7">
         <v>493</v>
@@ -7543,13 +7555,13 @@
         <v>342250</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="M14" s="7">
         <v>731</v>
@@ -7558,13 +7570,13 @@
         <v>602408</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7632,13 +7644,13 @@
         <v>39222</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>537</v>
+        <v>457</v>
       </c>
       <c r="H16" s="7">
         <v>110</v>
@@ -7647,13 +7659,13 @@
         <v>50128</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>507</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>256</v>
+        <v>546</v>
       </c>
       <c r="M16" s="7">
         <v>164</v>
@@ -7662,13 +7674,13 @@
         <v>89350</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7683,13 +7695,13 @@
         <v>145847</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>543</v>
+        <v>466</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="H17" s="7">
         <v>367</v>
@@ -7698,13 +7710,13 @@
         <v>174797</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>265</v>
+        <v>553</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>515</v>
+        <v>419</v>
       </c>
       <c r="M17" s="7">
         <v>576</v>
@@ -7713,13 +7725,13 @@
         <v>320644</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7787,13 +7799,13 @@
         <v>60211</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -7802,13 +7814,13 @@
         <v>42955</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="M19" s="7">
         <v>139</v>
@@ -7817,13 +7829,13 @@
         <v>103166</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7838,13 +7850,13 @@
         <v>200566</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="H20" s="7">
         <v>372</v>
@@ -7853,13 +7865,13 @@
         <v>221253</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="M20" s="7">
         <v>645</v>
@@ -7868,13 +7880,13 @@
         <v>421819</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7942,13 +7954,13 @@
         <v>140942</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="H22" s="7">
         <v>193</v>
@@ -7957,13 +7969,13 @@
         <v>137892</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>572</v>
+        <v>205</v>
       </c>
       <c r="M22" s="7">
         <v>313</v>
@@ -7972,13 +7984,13 @@
         <v>278834</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7993,13 +8005,13 @@
         <v>466307</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="H23" s="7">
         <v>729</v>
@@ -8008,13 +8020,13 @@
         <v>643147</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>580</v>
+        <v>214</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="M23" s="7">
         <v>1190</v>
@@ -8023,13 +8035,13 @@
         <v>1109454</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8097,13 +8109,13 @@
         <v>83471</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="H25" s="7">
         <v>129</v>
@@ -8112,13 +8124,13 @@
         <v>102634</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="M25" s="7">
         <v>202</v>
@@ -8127,13 +8139,13 @@
         <v>186106</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,13 +8160,13 @@
         <v>749542</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="H26" s="7">
         <v>910</v>
@@ -8163,13 +8175,13 @@
         <v>749435</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="M26" s="7">
         <v>1580</v>
@@ -8178,13 +8190,13 @@
         <v>1498976</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8252,13 +8264,13 @@
         <v>613687</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="H28" s="7">
         <v>941</v>
@@ -8267,13 +8279,13 @@
         <v>645867</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="M28" s="7">
         <v>1510</v>
@@ -8282,13 +8294,13 @@
         <v>1259555</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8303,13 +8315,13 @@
         <v>2662179</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="H29" s="7">
         <v>4275</v>
@@ -8318,13 +8330,13 @@
         <v>3070311</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="M29" s="7">
         <v>6958</v>
@@ -8333,13 +8345,13 @@
         <v>5732489</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8395,7 +8407,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C03-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C03-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40989E2C-7661-4323-90E6-8E55FE2BEA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF91E417-76E3-4847-94D2-054C4A022022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E2ACFAE2-866F-48B0-8376-8F0500D41ED9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1E85693B-6A11-4A33-8877-ECBCD3708CBC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="621">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2007 (Tasa respuesta: 78,1%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>35,98%</t>
   </si>
   <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
   </si>
   <si>
     <t>41,03%</t>
   </si>
   <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
   </si>
   <si>
     <t>38,56%</t>
   </si>
   <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>64,02%</t>
   </si>
   <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
   </si>
   <si>
     <t>58,97%</t>
   </si>
   <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
   </si>
   <si>
     <t>61,44%</t>
   </si>
   <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1662 +140,1656 @@
     <t>33,65%</t>
   </si>
   <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2012 (Tasa respuesta: 86,78%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
     <t>29,28%</t>
   </si>
   <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
   </si>
   <si>
     <t>70,72%</t>
   </si>
   <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2012 (Tasa respuesta: 86,78%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2023 (Tasa respuesta: 96,85%)</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
   </si>
   <si>
     <t>21,87%</t>
   </si>
   <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
   </si>
   <si>
     <t>78,13%</t>
   </si>
   <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2023 (Tasa respuesta: 96,85%)</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
     <t>88,84%</t>
   </si>
   <si>
@@ -1880,9 +1874,6 @@
     <t>18,74%</t>
   </si>
   <si>
-    <t>18,01%</t>
-  </si>
-  <si>
     <t>16,79%</t>
   </si>
   <si>
@@ -1905,9 +1896,6 @@
   </si>
   <si>
     <t>84,51%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
   </si>
   <si>
     <t>80,89%</t>
@@ -2325,7 +2313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E6DB8F-6BA0-47A8-8D12-2ECFFADB0EA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555C3818-B513-48EF-938B-464F10510F62}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3400,7 +3388,7 @@
         <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="M22" s="7">
         <v>309</v>
@@ -3409,13 +3397,13 @@
         <v>323125</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3418,13 @@
         <v>309521</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>362</v>
@@ -3445,13 +3433,13 @@
         <v>371047</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>669</v>
@@ -3460,13 +3448,13 @@
         <v>680567</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,7 +3510,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3534,13 +3522,13 @@
         <v>161468</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>199</v>
@@ -3549,13 +3537,13 @@
         <v>208878</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>360</v>
@@ -3564,13 +3552,13 @@
         <v>370346</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,13 +3573,13 @@
         <v>364084</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>366</v>
@@ -3600,13 +3588,13 @@
         <v>383534</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>727</v>
@@ -3615,13 +3603,13 @@
         <v>747617</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +3677,13 @@
         <v>784940</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>856</v>
@@ -3704,13 +3692,13 @@
         <v>878804</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1624</v>
@@ -3719,13 +3707,13 @@
         <v>1663744</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +3728,13 @@
         <v>1668761</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>1823</v>
@@ -3755,13 +3743,13 @@
         <v>1862133</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>3461</v>
@@ -3770,13 +3758,13 @@
         <v>3530894</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,7 +3820,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3856,7 +3844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4375109E-5062-4ED7-9627-351F1242DED0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AA3B5D-46A9-42EB-8199-0D62322F7B8A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3873,7 +3861,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3978,39 +3966,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,39 +4011,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,39 +4056,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4105,13 @@
         <v>123516</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H7" s="7">
         <v>127</v>
@@ -4132,13 +4120,13 @@
         <v>135308</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M7" s="7">
         <v>244</v>
@@ -4147,13 +4135,13 @@
         <v>258824</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>192</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4156,13 @@
         <v>282814</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>274</v>
@@ -4183,13 +4171,13 @@
         <v>301520</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>539</v>
@@ -4198,13 +4186,13 @@
         <v>584333</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,13 +4260,13 @@
         <v>96945</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>83</v>
@@ -4287,13 +4275,13 @@
         <v>87710</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>177</v>
@@ -4302,13 +4290,13 @@
         <v>184655</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,13 +4311,13 @@
         <v>196719</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H11" s="7">
         <v>222</v>
@@ -4338,13 +4326,13 @@
         <v>241042</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M11" s="7">
         <v>417</v>
@@ -4353,13 +4341,13 @@
         <v>437761</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,13 +4415,13 @@
         <v>152521</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>142</v>
@@ -4442,13 +4430,13 @@
         <v>151022</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="M13" s="7">
         <v>287</v>
@@ -4463,7 +4451,7 @@
         <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>108</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,13 +4466,13 @@
         <v>411116</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>406</v>
@@ -4493,13 +4481,13 @@
         <v>441032</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>791</v>
@@ -4508,13 +4496,13 @@
         <v>852148</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>117</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4570,13 @@
         <v>60347</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -4597,13 +4585,13 @@
         <v>58207</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>96</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -4612,13 +4600,13 @@
         <v>118554</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4621,13 @@
         <v>131711</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>132</v>
@@ -4648,13 +4636,13 @@
         <v>136375</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>106</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>253</v>
@@ -4663,13 +4651,13 @@
         <v>268086</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4725,13 @@
         <v>65940</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>69</v>
@@ -4752,13 +4740,13 @@
         <v>70339</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>132</v>
@@ -4767,13 +4755,13 @@
         <v>136279</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4776,13 @@
         <v>184033</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>185</v>
@@ -4803,13 +4791,13 @@
         <v>194491</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>360</v>
@@ -4818,13 +4806,13 @@
         <v>378524</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4880,13 @@
         <v>172383</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>166</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -4907,13 +4895,13 @@
         <v>173027</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>269</v>
+        <v>204</v>
       </c>
       <c r="M22" s="7">
         <v>318</v>
@@ -4922,13 +4910,13 @@
         <v>345409</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4931,13 @@
         <v>399921</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H23" s="7">
         <v>414</v>
@@ -4958,13 +4946,13 @@
         <v>452117</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>276</v>
+        <v>212</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
         <v>788</v>
@@ -4973,13 +4961,13 @@
         <v>852039</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,7 +5023,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5047,13 +5035,13 @@
         <v>202914</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>110</v>
+        <v>287</v>
       </c>
       <c r="H25" s="7">
         <v>220</v>
@@ -5062,13 +5050,13 @@
         <v>235105</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M25" s="7">
         <v>414</v>
@@ -5077,13 +5065,13 @@
         <v>438019</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5086,13 @@
         <v>430991</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>118</v>
+        <v>294</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="H26" s="7">
         <v>426</v>
@@ -5113,13 +5101,13 @@
         <v>467189</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="M26" s="7">
         <v>816</v>
@@ -5128,13 +5116,13 @@
         <v>898180</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>295</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5190,13 @@
         <v>874567</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>855</v>
@@ -5217,13 +5205,13 @@
         <v>910717</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>300</v>
+        <v>224</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M28" s="7">
         <v>1683</v>
@@ -5232,13 +5220,13 @@
         <v>1785284</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>304</v>
+        <v>95</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,28 +5241,28 @@
         <v>2037304</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H29" s="7">
         <v>2059</v>
       </c>
       <c r="I29" s="7">
-        <v>2233767</v>
+        <v>2233766</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>309</v>
+        <v>231</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M29" s="7">
         <v>3964</v>
@@ -5283,13 +5271,13 @@
         <v>4271071</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>314</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,7 +5304,7 @@
         <v>2914</v>
       </c>
       <c r="I30" s="7">
-        <v>3144484</v>
+        <v>3144483</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -5345,7 +5333,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5369,7 +5357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5372E76-E488-4F58-92B7-2ED0E1D86925}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F328E301-1300-483D-B20A-107A295BCF2F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5529,7 +5517,7 @@
         <v>323</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5532,13 @@
         <v>177542</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H5" s="7">
         <v>184</v>
@@ -5559,13 +5547,13 @@
         <v>191605</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M5" s="7">
         <v>345</v>
@@ -5574,13 +5562,13 @@
         <v>369146</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,13 +5636,13 @@
         <v>119089</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H7" s="7">
         <v>100</v>
@@ -5663,13 +5651,13 @@
         <v>104825</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M7" s="7">
         <v>213</v>
@@ -5678,13 +5666,13 @@
         <v>223913</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>341</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5687,13 @@
         <v>244076</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H8" s="7">
         <v>272</v>
@@ -5714,13 +5702,13 @@
         <v>288502</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M8" s="7">
         <v>501</v>
@@ -5729,13 +5717,13 @@
         <v>532579</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>350</v>
+        <v>208</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5791,13 @@
         <v>80613</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>202</v>
+        <v>346</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H10" s="7">
         <v>77</v>
@@ -5818,13 +5806,13 @@
         <v>73920</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="M10" s="7">
         <v>162</v>
@@ -5833,13 +5821,13 @@
         <v>154533</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5842,13 @@
         <v>209894</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>211</v>
+        <v>355</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H11" s="7">
         <v>228</v>
@@ -5869,13 +5857,13 @@
         <v>233844</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M11" s="7">
         <v>446</v>
@@ -5884,13 +5872,13 @@
         <v>443737</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +5946,13 @@
         <v>59492</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H13" s="7">
         <v>79</v>
@@ -5973,13 +5961,13 @@
         <v>84286</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M13" s="7">
         <v>136</v>
@@ -5988,13 +5976,13 @@
         <v>143778</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +5997,13 @@
         <v>270555</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H14" s="7">
         <v>244</v>
@@ -6024,13 +6012,13 @@
         <v>264575</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M14" s="7">
         <v>501</v>
@@ -6039,13 +6027,13 @@
         <v>535130</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6101,13 @@
         <v>28737</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -6128,13 +6116,13 @@
         <v>35021</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>268</v>
+        <v>385</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -6143,13 +6131,13 @@
         <v>63758</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,13 +6152,13 @@
         <v>90485</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>115</v>
@@ -6179,13 +6167,13 @@
         <v>110479</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>277</v>
+        <v>394</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>205</v>
@@ -6194,13 +6182,13 @@
         <v>200964</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,13 +6256,13 @@
         <v>52813</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="H19" s="7">
         <v>53</v>
@@ -6283,13 +6271,13 @@
         <v>52896</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="M19" s="7">
         <v>104</v>
@@ -6298,13 +6286,13 @@
         <v>105709</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6307,13 @@
         <v>180802</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="H20" s="7">
         <v>187</v>
@@ -6334,13 +6322,13 @@
         <v>194241</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M20" s="7">
         <v>366</v>
@@ -6349,13 +6337,13 @@
         <v>375044</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,13 +6411,13 @@
         <v>157661</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="H22" s="7">
         <v>154</v>
@@ -6438,13 +6426,13 @@
         <v>161096</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="M22" s="7">
         <v>290</v>
@@ -6453,13 +6441,13 @@
         <v>318757</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,13 +6462,13 @@
         <v>284646</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H23" s="7">
         <v>307</v>
@@ -6566,7 +6554,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6611,10 +6599,10 @@
         <v>442</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6629,13 +6617,13 @@
         <v>471729</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="H26" s="7">
         <v>460</v>
@@ -6644,13 +6632,13 @@
         <v>504206</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="M26" s="7">
         <v>915</v>
@@ -6659,13 +6647,13 @@
         <v>975935</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>452</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>453</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6721,13 @@
         <v>734604</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>454</v>
+        <v>200</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H28" s="7">
         <v>730</v>
@@ -6748,13 +6736,13 @@
         <v>753907</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M28" s="7">
         <v>1421</v>
@@ -6763,13 +6751,13 @@
         <v>1488511</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>461</v>
+        <v>408</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6781,16 +6769,16 @@
         <v>1839</v>
       </c>
       <c r="D29" s="7">
-        <v>1929729</v>
+        <v>1929730</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>463</v>
+        <v>210</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H29" s="7">
         <v>1997</v>
@@ -6799,13 +6787,13 @@
         <v>2113408</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="M29" s="7">
         <v>3836</v>
@@ -6814,13 +6802,13 @@
         <v>4043137</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>471</v>
+        <v>416</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,7 +6820,7 @@
         <v>2530</v>
       </c>
       <c r="D30" s="7">
-        <v>2664333</v>
+        <v>2664334</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -6876,7 +6864,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6900,7 +6888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B150B49-44CC-47E1-B66D-29BF99A59A4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2707D5-D3F8-4EB7-ABD2-3B275389C018}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6917,7 +6905,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7024,13 +7012,13 @@
         <v>37580</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="H4" s="7">
         <v>120</v>
@@ -7039,13 +7027,13 @@
         <v>59178</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="M4" s="7">
         <v>171</v>
@@ -7054,13 +7042,13 @@
         <v>96758</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7075,13 +7063,13 @@
         <v>217690</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="H5" s="7">
         <v>411</v>
@@ -7090,13 +7078,13 @@
         <v>210266</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="M5" s="7">
         <v>677</v>
@@ -7105,13 +7093,13 @@
         <v>427957</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7179,13 +7167,13 @@
         <v>137734</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H7" s="7">
         <v>144</v>
@@ -7194,13 +7182,13 @@
         <v>118023</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="M7" s="7">
         <v>236</v>
@@ -7209,13 +7197,13 @@
         <v>255757</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7230,13 +7218,13 @@
         <v>369770</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="H8" s="7">
         <v>552</v>
@@ -7245,13 +7233,13 @@
         <v>422071</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="M8" s="7">
         <v>831</v>
@@ -7260,13 +7248,13 @@
         <v>791841</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7334,13 +7322,13 @@
         <v>55035</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>352</v>
+        <v>505</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -7349,13 +7337,13 @@
         <v>51155</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="M10" s="7">
         <v>134</v>
@@ -7364,13 +7352,13 @@
         <v>106190</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,13 +7373,13 @@
         <v>252298</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>361</v>
+        <v>513</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H11" s="7">
         <v>441</v>
@@ -7400,13 +7388,13 @@
         <v>307091</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="M11" s="7">
         <v>728</v>
@@ -7415,13 +7403,13 @@
         <v>559389</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7489,13 +7477,13 @@
         <v>59492</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H13" s="7">
         <v>101</v>
@@ -7504,13 +7492,13 @@
         <v>83902</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="M13" s="7">
         <v>151</v>
@@ -7519,13 +7507,13 @@
         <v>143394</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7540,13 +7528,13 @@
         <v>260158</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H14" s="7">
         <v>493</v>
@@ -7555,13 +7543,13 @@
         <v>342250</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="M14" s="7">
         <v>731</v>
@@ -7570,13 +7558,13 @@
         <v>602408</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7644,13 +7632,13 @@
         <v>39222</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H16" s="7">
         <v>110</v>
@@ -7659,13 +7647,13 @@
         <v>50128</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>409</v>
+        <v>542</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="M16" s="7">
         <v>164</v>
@@ -7674,13 +7662,13 @@
         <v>89350</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7695,13 +7683,13 @@
         <v>145847</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H17" s="7">
         <v>367</v>
@@ -7710,13 +7698,13 @@
         <v>174797</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>419</v>
+        <v>551</v>
       </c>
       <c r="M17" s="7">
         <v>576</v>
@@ -7725,13 +7713,13 @@
         <v>320644</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,13 +7787,13 @@
         <v>60211</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>557</v>
+        <v>115</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -7814,13 +7802,13 @@
         <v>42955</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="M19" s="7">
         <v>139</v>
@@ -7829,13 +7817,13 @@
         <v>103166</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7850,13 +7838,13 @@
         <v>200566</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>566</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H20" s="7">
         <v>372</v>
@@ -7865,13 +7853,13 @@
         <v>221253</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="M20" s="7">
         <v>645</v>
@@ -7880,13 +7868,13 @@
         <v>421819</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7954,13 +7942,13 @@
         <v>140942</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H22" s="7">
         <v>193</v>
@@ -7969,13 +7957,13 @@
         <v>137892</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>205</v>
+        <v>575</v>
       </c>
       <c r="M22" s="7">
         <v>313</v>
@@ -7984,13 +7972,13 @@
         <v>278834</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,13 +7993,13 @@
         <v>466307</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="H23" s="7">
         <v>729</v>
@@ -8020,13 +8008,13 @@
         <v>643147</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>214</v>
+        <v>582</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="M23" s="7">
         <v>1190</v>
@@ -8035,13 +8023,13 @@
         <v>1109454</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8097,7 +8085,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8109,13 +8097,13 @@
         <v>83471</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>589</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>591</v>
       </c>
       <c r="H25" s="7">
         <v>129</v>
@@ -8124,13 +8112,13 @@
         <v>102634</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>594</v>
       </c>
       <c r="M25" s="7">
         <v>202</v>
@@ -8139,13 +8127,13 @@
         <v>186106</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>595</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8160,13 +8148,13 @@
         <v>749542</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>598</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>600</v>
       </c>
       <c r="H26" s="7">
         <v>910</v>
@@ -8175,13 +8163,13 @@
         <v>749435</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>603</v>
       </c>
       <c r="M26" s="7">
         <v>1580</v>
@@ -8190,13 +8178,13 @@
         <v>1498976</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>604</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8264,13 +8252,13 @@
         <v>613687</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>607</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>609</v>
       </c>
       <c r="H28" s="7">
         <v>941</v>
@@ -8279,13 +8267,13 @@
         <v>645867</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="M28" s="7">
         <v>1510</v>
@@ -8294,13 +8282,13 @@
         <v>1259555</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>613</v>
+        <v>371</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8315,13 +8303,13 @@
         <v>2662179</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H29" s="7">
         <v>4275</v>
@@ -8330,13 +8318,13 @@
         <v>3070311</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="M29" s="7">
         <v>6958</v>
@@ -8345,13 +8333,13 @@
         <v>5732489</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>622</v>
+        <v>381</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8407,7 +8395,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C03-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C03-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF91E417-76E3-4847-94D2-054C4A022022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7C7388C-B754-4496-B9D0-33C3BE67CB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1E85693B-6A11-4A33-8877-ECBCD3708CBC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{869E0BF3-62DA-49F8-ABB5-33DEE4560BAE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,1837 +71,1837 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>35,98%</t>
   </si>
   <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
   </si>
   <si>
     <t>41,03%</t>
   </si>
   <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2012 (Tasa respuesta: 86,78%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
     <t>33,84%</t>
   </si>
   <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
   </si>
   <si>
     <t>66,16%</t>
   </si>
   <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
   </si>
   <si>
     <t>37,82%</t>
   </si>
   <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
   </si>
   <si>
     <t>62,18%</t>
   </si>
   <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2023 (Tasa respuesta: 96,85%)</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
   </si>
   <si>
     <t>23,09%</t>
   </si>
   <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
   </si>
   <si>
     <t>76,91%</t>
   </si>
   <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2012 (Tasa respuesta: 86,78%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
   </si>
   <si>
     <t>18,01%</t>
   </si>
   <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
   </si>
   <si>
     <t>81,99%</t>
   </si>
   <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2023 (Tasa respuesta: 96,85%)</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
   </si>
 </sst>
 </file>
@@ -2313,7 +2313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555C3818-B513-48EF-938B-464F10510F62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0651D6B9-EB92-42C3-8590-B979CA0EFBBF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3388,7 +3388,7 @@
         <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>309</v>
@@ -3397,13 +3397,13 @@
         <v>323125</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3418,13 @@
         <v>309521</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>362</v>
@@ -3433,13 +3433,13 @@
         <v>371047</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>669</v>
@@ -3448,13 +3448,13 @@
         <v>680567</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,7 +3510,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3522,13 +3522,13 @@
         <v>161468</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>199</v>
@@ -3537,13 +3537,13 @@
         <v>208878</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>360</v>
@@ -3552,13 +3552,13 @@
         <v>370346</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3573,13 @@
         <v>364084</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>366</v>
@@ -3588,13 +3588,13 @@
         <v>383534</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>727</v>
@@ -3603,10 +3603,10 @@
         <v>747617</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>161</v>
@@ -3844,7 +3844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AA3B5D-46A9-42EB-8199-0D62322F7B8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F580734-19F3-4F71-ABB1-B8275CF5CE13}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4141,7 +4141,7 @@
         <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,13 +4156,13 @@
         <v>282814</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>274</v>
@@ -4171,13 +4171,13 @@
         <v>301520</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>539</v>
@@ -4186,13 +4186,13 @@
         <v>584333</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,13 +4260,13 @@
         <v>96945</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H10" s="7">
         <v>83</v>
@@ -4275,13 +4275,13 @@
         <v>87710</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>177</v>
@@ -4290,13 +4290,13 @@
         <v>184655</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,13 +4311,13 @@
         <v>196719</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="H11" s="7">
         <v>222</v>
@@ -4436,7 +4436,7 @@
         <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>287</v>
@@ -4445,13 +4445,13 @@
         <v>303543</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,13 +4466,13 @@
         <v>411116</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>406</v>
@@ -4481,13 +4481,13 @@
         <v>441032</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>791</v>
@@ -4496,13 +4496,13 @@
         <v>852148</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4570,13 +4570,13 @@
         <v>60347</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -4585,13 +4585,13 @@
         <v>58207</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -4600,13 +4600,13 @@
         <v>118554</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,13 +4621,13 @@
         <v>131711</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>132</v>
@@ -4636,13 +4636,13 @@
         <v>136375</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>253</v>
@@ -4651,13 +4651,13 @@
         <v>268086</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,13 +4725,13 @@
         <v>65940</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>69</v>
@@ -4740,13 +4740,13 @@
         <v>70339</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>132</v>
@@ -4755,13 +4755,13 @@
         <v>136279</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,13 +4776,13 @@
         <v>184033</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>185</v>
@@ -4791,13 +4791,13 @@
         <v>194491</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>360</v>
@@ -4806,13 +4806,13 @@
         <v>378524</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,13 +4880,13 @@
         <v>172383</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -4895,13 +4895,13 @@
         <v>173027</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>204</v>
+        <v>275</v>
       </c>
       <c r="M22" s="7">
         <v>318</v>
@@ -4910,13 +4910,13 @@
         <v>345409</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4931,13 @@
         <v>399921</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="H23" s="7">
         <v>414</v>
@@ -4946,13 +4946,13 @@
         <v>452117</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>212</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>788</v>
@@ -4961,13 +4961,13 @@
         <v>852039</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,7 +5023,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5035,13 +5035,13 @@
         <v>202914</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H25" s="7">
         <v>220</v>
@@ -5050,13 +5050,13 @@
         <v>235105</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M25" s="7">
         <v>414</v>
@@ -5065,13 +5065,13 @@
         <v>438019</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,13 +5086,13 @@
         <v>430991</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H26" s="7">
         <v>426</v>
@@ -5101,13 +5101,13 @@
         <v>467189</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>816</v>
@@ -5116,13 +5116,13 @@
         <v>898180</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5190,13 @@
         <v>874567</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>855</v>
@@ -5205,13 +5205,13 @@
         <v>910717</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>304</v>
+        <v>114</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M28" s="7">
         <v>1683</v>
@@ -5220,13 +5220,13 @@
         <v>1785284</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>95</v>
+        <v>311</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,43 +5241,43 @@
         <v>2037304</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H29" s="7">
         <v>2059</v>
       </c>
       <c r="I29" s="7">
-        <v>2233766</v>
+        <v>2233767</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>231</v>
+        <v>316</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>312</v>
+        <v>123</v>
       </c>
       <c r="M29" s="7">
         <v>3964</v>
       </c>
       <c r="N29" s="7">
-        <v>4271071</v>
+        <v>4271070</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>104</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,7 +5304,7 @@
         <v>2914</v>
       </c>
       <c r="I30" s="7">
-        <v>3144483</v>
+        <v>3144484</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -5319,7 +5319,7 @@
         <v>5647</v>
       </c>
       <c r="N30" s="7">
-        <v>6056355</v>
+        <v>6056354</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5357,7 +5357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F328E301-1300-483D-B20A-107A295BCF2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6668E719-06D9-4BCD-8026-6D17371FEEB6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5374,7 +5374,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5481,13 +5481,13 @@
         <v>67676</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="H4" s="7">
         <v>55</v>
@@ -5496,13 +5496,13 @@
         <v>54729</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="M4" s="7">
         <v>115</v>
@@ -5511,13 +5511,13 @@
         <v>122405</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5532,13 @@
         <v>177542</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="H5" s="7">
         <v>184</v>
@@ -5547,13 +5547,13 @@
         <v>191605</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="M5" s="7">
         <v>345</v>
@@ -5562,13 +5562,13 @@
         <v>369146</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>282</v>
+        <v>338</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,13 +5636,13 @@
         <v>119089</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H7" s="7">
         <v>100</v>
@@ -5651,13 +5651,13 @@
         <v>104825</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>335</v>
+        <v>58</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="M7" s="7">
         <v>213</v>
@@ -5666,13 +5666,13 @@
         <v>223913</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>346</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>199</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,13 +5687,13 @@
         <v>244076</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="H8" s="7">
         <v>272</v>
@@ -5702,13 +5702,13 @@
         <v>288502</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>342</v>
+        <v>68</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>501</v>
@@ -5717,13 +5717,13 @@
         <v>532579</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>208</v>
+        <v>354</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,13 +5791,13 @@
         <v>80613</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>77</v>
@@ -5806,13 +5806,13 @@
         <v>73920</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="M10" s="7">
         <v>162</v>
@@ -5821,13 +5821,13 @@
         <v>154533</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,16 +5839,16 @@
         <v>218</v>
       </c>
       <c r="D11" s="7">
-        <v>209894</v>
+        <v>209893</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>228</v>
@@ -5857,13 +5857,13 @@
         <v>233844</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="M11" s="7">
         <v>446</v>
@@ -5872,13 +5872,13 @@
         <v>443737</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,7 +5890,7 @@
         <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>290507</v>
+        <v>290506</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5946,13 +5946,13 @@
         <v>59492</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>79</v>
@@ -5961,13 +5961,13 @@
         <v>84286</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="M13" s="7">
         <v>136</v>
@@ -5976,13 +5976,13 @@
         <v>143778</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,13 +5997,13 @@
         <v>270555</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="H14" s="7">
         <v>244</v>
@@ -6012,13 +6012,13 @@
         <v>264575</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="M14" s="7">
         <v>501</v>
@@ -6027,13 +6027,13 @@
         <v>535130</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,13 +6101,13 @@
         <v>28737</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -6116,13 +6116,13 @@
         <v>35021</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>387</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -6131,13 +6131,13 @@
         <v>63758</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,13 +6152,13 @@
         <v>90485</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="H17" s="7">
         <v>115</v>
@@ -6167,13 +6167,13 @@
         <v>110479</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>351</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>205</v>
@@ -6182,13 +6182,13 @@
         <v>200964</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,13 +6256,13 @@
         <v>52813</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H19" s="7">
         <v>53</v>
@@ -6271,13 +6271,13 @@
         <v>52896</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>104</v>
@@ -6286,13 +6286,13 @@
         <v>105709</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>408</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,13 +6307,13 @@
         <v>180802</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H20" s="7">
         <v>187</v>
@@ -6322,13 +6322,13 @@
         <v>194241</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="M20" s="7">
         <v>366</v>
@@ -6337,13 +6337,13 @@
         <v>375044</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>216</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,13 +6411,13 @@
         <v>157661</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H22" s="7">
         <v>154</v>
@@ -6426,13 +6426,13 @@
         <v>161096</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M22" s="7">
         <v>290</v>
@@ -6441,13 +6441,13 @@
         <v>318757</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,13 +6462,13 @@
         <v>284646</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H23" s="7">
         <v>307</v>
@@ -6477,13 +6477,13 @@
         <v>325955</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M23" s="7">
         <v>557</v>
@@ -6492,13 +6492,13 @@
         <v>610601</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,7 +6554,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6566,13 +6566,13 @@
         <v>168523</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H25" s="7">
         <v>175</v>
@@ -6581,13 +6581,13 @@
         <v>187135</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M25" s="7">
         <v>336</v>
@@ -6596,13 +6596,13 @@
         <v>355658</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6617,28 +6617,28 @@
         <v>471729</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H26" s="7">
         <v>460</v>
       </c>
       <c r="I26" s="7">
-        <v>504206</v>
+        <v>504207</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M26" s="7">
         <v>915</v>
@@ -6647,13 +6647,13 @@
         <v>975935</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6680,7 +6680,7 @@
         <v>635</v>
       </c>
       <c r="I27" s="7">
-        <v>691341</v>
+        <v>691342</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -6721,13 +6721,13 @@
         <v>734604</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>200</v>
+        <v>327</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>452</v>
+        <v>71</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="H28" s="7">
         <v>730</v>
@@ -6739,10 +6739,10 @@
         <v>454</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="M28" s="7">
         <v>1421</v>
@@ -6751,13 +6751,13 @@
         <v>1488511</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>408</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>458</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6772,13 +6772,13 @@
         <v>1929730</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>210</v>
+        <v>335</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>460</v>
+        <v>81</v>
       </c>
       <c r="H29" s="7">
         <v>1997</v>
@@ -6787,28 +6787,28 @@
         <v>2113408</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>463</v>
+        <v>65</v>
       </c>
       <c r="M29" s="7">
         <v>3836</v>
       </c>
       <c r="N29" s="7">
-        <v>4043137</v>
+        <v>4043138</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>465</v>
+        <v>298</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6850,7 +6850,7 @@
         <v>5257</v>
       </c>
       <c r="N30" s="7">
-        <v>5531648</v>
+        <v>5531649</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6888,7 +6888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2707D5-D3F8-4EB7-ABD2-3B275389C018}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A21583-44AF-4AFF-9542-BAB5F111EC6F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6905,7 +6905,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7012,13 +7012,13 @@
         <v>37580</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="H4" s="7">
         <v>120</v>
@@ -7027,13 +7027,13 @@
         <v>59178</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="M4" s="7">
         <v>171</v>
@@ -7042,13 +7042,13 @@
         <v>96758</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7063,13 +7063,13 @@
         <v>217690</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H5" s="7">
         <v>411</v>
@@ -7078,13 +7078,13 @@
         <v>210266</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M5" s="7">
         <v>677</v>
@@ -7093,13 +7093,13 @@
         <v>427957</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7167,13 +7167,13 @@
         <v>137734</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H7" s="7">
         <v>144</v>
@@ -7182,13 +7182,13 @@
         <v>118023</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="M7" s="7">
         <v>236</v>
@@ -7197,13 +7197,13 @@
         <v>255757</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,13 +7218,13 @@
         <v>369770</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H8" s="7">
         <v>552</v>
@@ -7233,13 +7233,13 @@
         <v>422071</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="M8" s="7">
         <v>831</v>
@@ -7248,13 +7248,13 @@
         <v>791841</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,13 +7322,13 @@
         <v>55035</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -7337,13 +7337,13 @@
         <v>51155</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M10" s="7">
         <v>134</v>
@@ -7352,13 +7352,13 @@
         <v>106190</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,13 +7373,13 @@
         <v>252298</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="H11" s="7">
         <v>441</v>
@@ -7388,13 +7388,13 @@
         <v>307091</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="M11" s="7">
         <v>728</v>
@@ -7403,13 +7403,13 @@
         <v>559389</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7477,13 +7477,13 @@
         <v>59492</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H13" s="7">
         <v>101</v>
@@ -7492,13 +7492,13 @@
         <v>83902</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="M13" s="7">
         <v>151</v>
@@ -7507,13 +7507,13 @@
         <v>143394</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,13 +7528,13 @@
         <v>260158</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H14" s="7">
         <v>493</v>
@@ -7543,13 +7543,13 @@
         <v>342250</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="M14" s="7">
         <v>731</v>
@@ -7558,13 +7558,13 @@
         <v>602408</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7632,13 +7632,13 @@
         <v>39222</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>454</v>
+        <v>537</v>
       </c>
       <c r="H16" s="7">
         <v>110</v>
@@ -7647,13 +7647,13 @@
         <v>50128</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>542</v>
+        <v>507</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>543</v>
+        <v>256</v>
       </c>
       <c r="M16" s="7">
         <v>164</v>
@@ -7662,13 +7662,13 @@
         <v>89350</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7683,13 +7683,13 @@
         <v>145847</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>461</v>
+        <v>543</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="H17" s="7">
         <v>367</v>
@@ -7698,13 +7698,13 @@
         <v>174797</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>550</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>551</v>
+        <v>515</v>
       </c>
       <c r="M17" s="7">
         <v>576</v>
@@ -7713,13 +7713,13 @@
         <v>320644</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7787,13 +7787,13 @@
         <v>60211</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>115</v>
+        <v>549</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -7802,13 +7802,13 @@
         <v>42955</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="M19" s="7">
         <v>139</v>
@@ -7817,13 +7817,13 @@
         <v>103166</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7838,13 +7838,13 @@
         <v>200566</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>558</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H20" s="7">
         <v>372</v>
@@ -7853,13 +7853,13 @@
         <v>221253</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="M20" s="7">
         <v>645</v>
@@ -7868,13 +7868,13 @@
         <v>421819</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7942,13 +7942,13 @@
         <v>140942</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="H22" s="7">
         <v>193</v>
@@ -7957,13 +7957,13 @@
         <v>137892</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="M22" s="7">
         <v>313</v>
@@ -7972,13 +7972,13 @@
         <v>278834</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7993,13 +7993,13 @@
         <v>466307</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="H23" s="7">
         <v>729</v>
@@ -8008,13 +8008,13 @@
         <v>643147</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>583</v>
       </c>
       <c r="M23" s="7">
         <v>1190</v>
@@ -8023,13 +8023,13 @@
         <v>1109454</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8085,7 +8085,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8097,13 +8097,13 @@
         <v>83471</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>589</v>
       </c>
       <c r="H25" s="7">
         <v>129</v>
@@ -8112,13 +8112,13 @@
         <v>102634</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>592</v>
       </c>
       <c r="M25" s="7">
         <v>202</v>
@@ -8127,13 +8127,13 @@
         <v>186106</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,13 +8148,13 @@
         <v>749542</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>596</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>598</v>
       </c>
       <c r="H26" s="7">
         <v>910</v>
@@ -8163,13 +8163,13 @@
         <v>749435</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>601</v>
       </c>
       <c r="M26" s="7">
         <v>1580</v>
@@ -8178,13 +8178,13 @@
         <v>1498976</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8252,13 +8252,13 @@
         <v>613687</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>605</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>607</v>
       </c>
       <c r="H28" s="7">
         <v>941</v>
@@ -8267,13 +8267,13 @@
         <v>645867</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>610</v>
       </c>
       <c r="M28" s="7">
         <v>1510</v>
@@ -8282,13 +8282,13 @@
         <v>1259555</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>371</v>
+        <v>609</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8303,13 +8303,13 @@
         <v>2662179</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>614</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>615</v>
       </c>
       <c r="H29" s="7">
         <v>4275</v>
@@ -8318,13 +8318,13 @@
         <v>3070311</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>617</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>618</v>
       </c>
       <c r="M29" s="7">
         <v>6958</v>
@@ -8333,7 +8333,7 @@
         <v>5732489</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>381</v>
+        <v>618</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>619</v>

--- a/data/trans_orig/P19C03-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C03-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7C7388C-B754-4496-B9D0-33C3BE67CB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AFCA02F-49AE-4C07-BB2D-FB0F94240490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{869E0BF3-62DA-49F8-ABB5-33DEE4560BAE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8B6734A1-D61C-4601-946A-B0E75F9EE3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="638">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2007 (Tasa respuesta: 78,1%)</t>
   </si>
@@ -587,7 +587,58 @@
     <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2012 (Tasa respuesta: 86,78%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
   </si>
   <si>
     <t>30,4%</t>
@@ -692,58 +743,58 @@
     <t>74,05%</t>
   </si>
   <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
   </si>
   <si>
     <t>31,42%</t>
@@ -1430,478 +1481,478 @@
     <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2023 (Tasa respuesta: 96,85%)</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
   </si>
   <si>
     <t>22,55%</t>
   </si>
   <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
   </si>
   <si>
     <t>85,72%</t>
   </si>
   <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
   </si>
 </sst>
 </file>
@@ -2313,7 +2364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0651D6B9-EB92-42C3-8590-B979CA0EFBBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26DC4FF-DFA4-4D09-8BC5-1F792FF5EC68}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3844,7 +3895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F580734-19F3-4F71-ABB1-B8275CF5CE13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3502E65F-A24A-4957-851D-DD3E0D8FA5F5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3962,43 +4013,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="D4" s="7">
+        <v>46739</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="I4" s="7">
+        <v>65281</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="N4" s="7">
+        <v>112020</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,43 +4064,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>194</v>
+      </c>
+      <c r="D5" s="7">
+        <v>203821</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>164</v>
+      </c>
+      <c r="I5" s="7">
+        <v>183958</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>358</v>
+      </c>
+      <c r="N5" s="7">
+        <v>387780</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,43 +4115,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>241</v>
+      </c>
+      <c r="D6" s="7">
+        <v>250560</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>222</v>
+      </c>
+      <c r="I6" s="7">
+        <v>249239</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>463</v>
+      </c>
+      <c r="N6" s="7">
+        <v>499800</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,13 +4174,13 @@
         <v>123516</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>127</v>
@@ -4120,13 +4189,13 @@
         <v>135308</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>244</v>
@@ -4135,13 +4204,13 @@
         <v>258824</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,13 +4225,13 @@
         <v>282814</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>274</v>
@@ -4171,13 +4240,13 @@
         <v>301520</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>539</v>
@@ -4186,13 +4255,13 @@
         <v>584333</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,13 +4329,13 @@
         <v>96945</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="H10" s="7">
         <v>83</v>
@@ -4275,13 +4344,13 @@
         <v>87710</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="M10" s="7">
         <v>177</v>
@@ -4290,13 +4359,13 @@
         <v>184655</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,13 +4380,13 @@
         <v>196719</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="H11" s="7">
         <v>222</v>
@@ -4326,13 +4395,13 @@
         <v>241042</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="M11" s="7">
         <v>417</v>
@@ -4341,13 +4410,13 @@
         <v>437761</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,49 +4478,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="D13" s="7">
-        <v>152521</v>
+        <v>105783</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="I13" s="7">
-        <v>151022</v>
+        <v>85741</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
-        <v>287</v>
+        <v>182</v>
       </c>
       <c r="N13" s="7">
-        <v>303543</v>
+        <v>191523</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,49 +4529,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>385</v>
+        <v>191</v>
       </c>
       <c r="D14" s="7">
-        <v>411116</v>
+        <v>207294</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
-        <v>406</v>
+        <v>242</v>
       </c>
       <c r="I14" s="7">
-        <v>441032</v>
+        <v>257074</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
-        <v>791</v>
+        <v>433</v>
       </c>
       <c r="N14" s="7">
-        <v>852148</v>
+        <v>464368</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,10 +4580,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>530</v>
+        <v>289</v>
       </c>
       <c r="D15" s="7">
-        <v>563637</v>
+        <v>313077</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4526,10 +4595,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>548</v>
+        <v>326</v>
       </c>
       <c r="I15" s="7">
-        <v>592054</v>
+        <v>342815</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4541,10 +4610,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1078</v>
+        <v>615</v>
       </c>
       <c r="N15" s="7">
-        <v>1155691</v>
+        <v>655891</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4570,13 +4639,13 @@
         <v>60347</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -4585,13 +4654,13 @@
         <v>58207</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -4600,13 +4669,13 @@
         <v>118554</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,13 +4690,13 @@
         <v>131711</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>132</v>
@@ -4636,13 +4705,13 @@
         <v>136375</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>253</v>
@@ -4651,13 +4720,13 @@
         <v>268086</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,13 +4794,13 @@
         <v>65940</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="H19" s="7">
         <v>69</v>
@@ -4740,13 +4809,13 @@
         <v>70339</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="M19" s="7">
         <v>132</v>
@@ -4755,13 +4824,13 @@
         <v>136279</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,13 +4845,13 @@
         <v>184033</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>185</v>
@@ -4791,13 +4860,13 @@
         <v>194491</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="M20" s="7">
         <v>360</v>
@@ -4806,13 +4875,13 @@
         <v>378524</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,13 +4949,13 @@
         <v>172383</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -4895,13 +4964,13 @@
         <v>173027</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="M22" s="7">
         <v>318</v>
@@ -4910,13 +4979,13 @@
         <v>345409</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +5000,13 @@
         <v>399921</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="H23" s="7">
         <v>414</v>
@@ -4946,13 +5015,13 @@
         <v>452117</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="M23" s="7">
         <v>788</v>
@@ -4961,13 +5030,13 @@
         <v>852039</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,13 +5104,13 @@
         <v>202914</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="H25" s="7">
         <v>220</v>
@@ -5050,13 +5119,13 @@
         <v>235105</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="M25" s="7">
         <v>414</v>
@@ -5065,13 +5134,13 @@
         <v>438019</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,13 +5155,13 @@
         <v>430991</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="H26" s="7">
         <v>426</v>
@@ -5101,13 +5170,13 @@
         <v>467189</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M26" s="7">
         <v>816</v>
@@ -5116,13 +5185,13 @@
         <v>898180</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5259,13 @@
         <v>874567</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="H28" s="7">
         <v>855</v>
@@ -5205,13 +5274,13 @@
         <v>910717</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>114</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="M28" s="7">
         <v>1683</v>
@@ -5220,13 +5289,13 @@
         <v>1785284</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,25 +5310,25 @@
         <v>2037304</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="H29" s="7">
         <v>2059</v>
       </c>
       <c r="I29" s="7">
-        <v>2233767</v>
+        <v>2233766</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>123</v>
@@ -5268,16 +5337,16 @@
         <v>3964</v>
       </c>
       <c r="N29" s="7">
-        <v>4271070</v>
+        <v>4271071</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,7 +5373,7 @@
         <v>2914</v>
       </c>
       <c r="I30" s="7">
-        <v>3144484</v>
+        <v>3144483</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -5319,7 +5388,7 @@
         <v>5647</v>
       </c>
       <c r="N30" s="7">
-        <v>6056354</v>
+        <v>6056355</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5357,7 +5426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6668E719-06D9-4BCD-8026-6D17371FEEB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190F67CE-F8AD-47E4-B442-D9B3C6DEC3FF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5374,7 +5443,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5481,13 +5550,13 @@
         <v>67676</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="H4" s="7">
         <v>55</v>
@@ -5496,13 +5565,13 @@
         <v>54729</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="M4" s="7">
         <v>115</v>
@@ -5511,13 +5580,13 @@
         <v>122405</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5601,13 @@
         <v>177542</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="H5" s="7">
         <v>184</v>
@@ -5547,13 +5616,13 @@
         <v>191605</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="M5" s="7">
         <v>345</v>
@@ -5562,13 +5631,13 @@
         <v>369146</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,13 +5705,13 @@
         <v>119089</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="H7" s="7">
         <v>100</v>
@@ -5654,10 +5723,10 @@
         <v>58</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="M7" s="7">
         <v>213</v>
@@ -5666,13 +5735,13 @@
         <v>223913</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,13 +5756,13 @@
         <v>244076</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="H8" s="7">
         <v>272</v>
@@ -5705,10 +5774,10 @@
         <v>68</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="M8" s="7">
         <v>501</v>
@@ -5717,13 +5786,13 @@
         <v>532579</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,13 +5860,13 @@
         <v>80613</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>77</v>
@@ -5806,13 +5875,13 @@
         <v>73920</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>162</v>
@@ -5821,13 +5890,13 @@
         <v>154533</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,16 +5908,16 @@
         <v>218</v>
       </c>
       <c r="D11" s="7">
-        <v>209893</v>
+        <v>209894</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="H11" s="7">
         <v>228</v>
@@ -5857,13 +5926,13 @@
         <v>233844</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="M11" s="7">
         <v>446</v>
@@ -5872,13 +5941,13 @@
         <v>443737</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,7 +5959,7 @@
         <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>290506</v>
+        <v>290507</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5946,13 +6015,13 @@
         <v>59492</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="H13" s="7">
         <v>79</v>
@@ -5961,13 +6030,13 @@
         <v>84286</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="M13" s="7">
         <v>136</v>
@@ -5976,13 +6045,13 @@
         <v>143778</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,13 +6066,13 @@
         <v>270555</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="H14" s="7">
         <v>244</v>
@@ -6012,13 +6081,13 @@
         <v>264575</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>501</v>
@@ -6027,13 +6096,13 @@
         <v>535130</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,13 +6170,13 @@
         <v>28737</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -6116,13 +6185,13 @@
         <v>35021</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -6131,13 +6200,13 @@
         <v>63758</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,13 +6221,13 @@
         <v>90485</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="H17" s="7">
         <v>115</v>
@@ -6167,13 +6236,13 @@
         <v>110479</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="M17" s="7">
         <v>205</v>
@@ -6182,13 +6251,13 @@
         <v>200964</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,13 +6325,13 @@
         <v>52813</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="H19" s="7">
         <v>53</v>
@@ -6271,13 +6340,13 @@
         <v>52896</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="M19" s="7">
         <v>104</v>
@@ -6286,13 +6355,13 @@
         <v>105709</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,13 +6376,13 @@
         <v>180802</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="H20" s="7">
         <v>187</v>
@@ -6322,13 +6391,13 @@
         <v>194241</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="M20" s="7">
         <v>366</v>
@@ -6337,13 +6406,13 @@
         <v>375044</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,13 +6480,13 @@
         <v>157661</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="H22" s="7">
         <v>154</v>
@@ -6426,13 +6495,13 @@
         <v>161096</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="M22" s="7">
         <v>290</v>
@@ -6441,13 +6510,13 @@
         <v>318757</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,13 +6531,13 @@
         <v>284646</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="H23" s="7">
         <v>307</v>
@@ -6477,13 +6546,13 @@
         <v>325955</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="M23" s="7">
         <v>557</v>
@@ -6492,13 +6561,13 @@
         <v>610601</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,13 +6635,13 @@
         <v>168523</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="H25" s="7">
         <v>175</v>
@@ -6581,13 +6650,13 @@
         <v>187135</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="M25" s="7">
         <v>336</v>
@@ -6596,13 +6665,13 @@
         <v>355658</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6617,28 +6686,28 @@
         <v>471729</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="H26" s="7">
         <v>460</v>
       </c>
       <c r="I26" s="7">
-        <v>504207</v>
+        <v>504206</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="M26" s="7">
         <v>915</v>
@@ -6647,13 +6716,13 @@
         <v>975935</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6680,7 +6749,7 @@
         <v>635</v>
       </c>
       <c r="I27" s="7">
-        <v>691342</v>
+        <v>691341</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -6721,13 +6790,13 @@
         <v>734604</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>71</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="H28" s="7">
         <v>730</v>
@@ -6736,13 +6805,13 @@
         <v>753907</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="M28" s="7">
         <v>1421</v>
@@ -6751,13 +6820,13 @@
         <v>1488511</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,13 +6838,13 @@
         <v>1839</v>
       </c>
       <c r="D29" s="7">
-        <v>1929730</v>
+        <v>1929729</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>81</v>
@@ -6787,10 +6856,10 @@
         <v>2113408</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>65</v>
@@ -6799,16 +6868,16 @@
         <v>3836</v>
       </c>
       <c r="N29" s="7">
-        <v>4043138</v>
+        <v>4043137</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6820,7 +6889,7 @@
         <v>2530</v>
       </c>
       <c r="D30" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -6850,7 +6919,7 @@
         <v>5257</v>
       </c>
       <c r="N30" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6888,7 +6957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A21583-44AF-4AFF-9542-BAB5F111EC6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5358AB76-0A1B-42DC-BB49-4EC0F9D8D280}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6905,7 +6974,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7009,46 +7078,46 @@
         <v>51</v>
       </c>
       <c r="D4" s="7">
-        <v>37580</v>
+        <v>44237</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="H4" s="7">
         <v>120</v>
       </c>
       <c r="I4" s="7">
-        <v>59178</v>
+        <v>64859</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="M4" s="7">
         <v>171</v>
       </c>
       <c r="N4" s="7">
-        <v>96758</v>
+        <v>109096</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7060,46 +7129,46 @@
         <v>266</v>
       </c>
       <c r="D5" s="7">
-        <v>217690</v>
+        <v>261193</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="H5" s="7">
         <v>411</v>
       </c>
       <c r="I5" s="7">
-        <v>210266</v>
+        <v>222748</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="M5" s="7">
         <v>677</v>
       </c>
       <c r="N5" s="7">
-        <v>427957</v>
+        <v>483941</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7111,7 +7180,7 @@
         <v>317</v>
       </c>
       <c r="D6" s="7">
-        <v>255270</v>
+        <v>305430</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7126,7 +7195,7 @@
         <v>531</v>
       </c>
       <c r="I6" s="7">
-        <v>269444</v>
+        <v>287607</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7141,7 +7210,7 @@
         <v>848</v>
       </c>
       <c r="N6" s="7">
-        <v>524715</v>
+        <v>593037</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7164,46 +7233,46 @@
         <v>92</v>
       </c>
       <c r="D7" s="7">
-        <v>137734</v>
+        <v>139687</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="H7" s="7">
         <v>144</v>
       </c>
       <c r="I7" s="7">
-        <v>118023</v>
+        <v>109933</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="M7" s="7">
         <v>236</v>
       </c>
       <c r="N7" s="7">
-        <v>255757</v>
+        <v>249620</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7215,13 +7284,13 @@
         <v>279</v>
       </c>
       <c r="D8" s="7">
-        <v>369770</v>
+        <v>367297</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>492</v>
@@ -7230,31 +7299,31 @@
         <v>552</v>
       </c>
       <c r="I8" s="7">
-        <v>422071</v>
+        <v>391615</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="M8" s="7">
         <v>831</v>
       </c>
       <c r="N8" s="7">
-        <v>791841</v>
+        <v>758912</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7266,7 +7335,7 @@
         <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>507504</v>
+        <v>506984</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7281,7 +7350,7 @@
         <v>696</v>
       </c>
       <c r="I9" s="7">
-        <v>540094</v>
+        <v>501548</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7296,7 +7365,7 @@
         <v>1067</v>
       </c>
       <c r="N9" s="7">
-        <v>1047598</v>
+        <v>1008532</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7319,46 +7388,46 @@
         <v>58</v>
       </c>
       <c r="D10" s="7">
-        <v>55035</v>
+        <v>54138</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
       </c>
       <c r="I10" s="7">
-        <v>51155</v>
+        <v>47846</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="M10" s="7">
         <v>134</v>
       </c>
       <c r="N10" s="7">
-        <v>106190</v>
+        <v>101984</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>507</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,46 +7439,46 @@
         <v>287</v>
       </c>
       <c r="D11" s="7">
-        <v>252298</v>
+        <v>247054</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="H11" s="7">
         <v>441</v>
       </c>
       <c r="I11" s="7">
-        <v>307091</v>
+        <v>287429</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="M11" s="7">
         <v>728</v>
       </c>
       <c r="N11" s="7">
-        <v>559389</v>
+        <v>534483</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>515</v>
+        <v>420</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7421,7 +7490,7 @@
         <v>345</v>
       </c>
       <c r="D12" s="7">
-        <v>307333</v>
+        <v>301192</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7436,7 +7505,7 @@
         <v>517</v>
       </c>
       <c r="I12" s="7">
-        <v>358246</v>
+        <v>335275</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7451,7 +7520,7 @@
         <v>862</v>
       </c>
       <c r="N12" s="7">
-        <v>665579</v>
+        <v>636467</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7474,46 +7543,46 @@
         <v>50</v>
       </c>
       <c r="D13" s="7">
-        <v>59492</v>
+        <v>59092</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="H13" s="7">
         <v>101</v>
       </c>
       <c r="I13" s="7">
-        <v>83902</v>
+        <v>101370</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="M13" s="7">
         <v>151</v>
       </c>
       <c r="N13" s="7">
-        <v>143394</v>
+        <v>160463</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7525,46 +7594,46 @@
         <v>238</v>
       </c>
       <c r="D14" s="7">
-        <v>260158</v>
+        <v>251028</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="H14" s="7">
         <v>493</v>
       </c>
       <c r="I14" s="7">
-        <v>342250</v>
+        <v>372095</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="M14" s="7">
         <v>731</v>
       </c>
       <c r="N14" s="7">
-        <v>602408</v>
+        <v>623122</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7576,7 +7645,7 @@
         <v>288</v>
       </c>
       <c r="D15" s="7">
-        <v>319650</v>
+        <v>310120</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7591,7 +7660,7 @@
         <v>594</v>
       </c>
       <c r="I15" s="7">
-        <v>426152</v>
+        <v>473465</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7606,7 +7675,7 @@
         <v>882</v>
       </c>
       <c r="N15" s="7">
-        <v>745802</v>
+        <v>783585</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7629,46 +7698,46 @@
         <v>54</v>
       </c>
       <c r="D16" s="7">
-        <v>39222</v>
+        <v>35951</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="H16" s="7">
         <v>110</v>
       </c>
       <c r="I16" s="7">
-        <v>50128</v>
+        <v>45861</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>507</v>
+        <v>552</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>256</v>
+        <v>553</v>
       </c>
       <c r="M16" s="7">
         <v>164</v>
       </c>
       <c r="N16" s="7">
-        <v>89350</v>
+        <v>81812</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7680,46 +7749,46 @@
         <v>209</v>
       </c>
       <c r="D17" s="7">
-        <v>145847</v>
+        <v>132478</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="H17" s="7">
         <v>367</v>
       </c>
       <c r="I17" s="7">
-        <v>174797</v>
+        <v>156431</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>265</v>
+        <v>561</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>515</v>
+        <v>562</v>
       </c>
       <c r="M17" s="7">
         <v>576</v>
       </c>
       <c r="N17" s="7">
-        <v>320644</v>
+        <v>288909</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7731,7 +7800,7 @@
         <v>263</v>
       </c>
       <c r="D18" s="7">
-        <v>185069</v>
+        <v>168429</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7746,7 +7815,7 @@
         <v>477</v>
       </c>
       <c r="I18" s="7">
-        <v>224925</v>
+        <v>202292</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7761,7 +7830,7 @@
         <v>740</v>
       </c>
       <c r="N18" s="7">
-        <v>409994</v>
+        <v>370721</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7784,46 +7853,46 @@
         <v>71</v>
       </c>
       <c r="D19" s="7">
-        <v>60211</v>
+        <v>58662</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
       </c>
       <c r="I19" s="7">
-        <v>42955</v>
+        <v>39803</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="M19" s="7">
         <v>139</v>
       </c>
       <c r="N19" s="7">
-        <v>103166</v>
+        <v>98465</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7835,46 +7904,46 @@
         <v>273</v>
       </c>
       <c r="D20" s="7">
-        <v>200566</v>
+        <v>195070</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="H20" s="7">
         <v>372</v>
       </c>
       <c r="I20" s="7">
-        <v>221253</v>
+        <v>206547</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="M20" s="7">
         <v>645</v>
       </c>
       <c r="N20" s="7">
-        <v>421819</v>
+        <v>401617</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7886,7 +7955,7 @@
         <v>344</v>
       </c>
       <c r="D21" s="7">
-        <v>260777</v>
+        <v>253732</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7901,7 +7970,7 @@
         <v>440</v>
       </c>
       <c r="I21" s="7">
-        <v>264208</v>
+        <v>246350</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7916,7 +7985,7 @@
         <v>784</v>
       </c>
       <c r="N21" s="7">
-        <v>524985</v>
+        <v>500082</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7939,46 +8008,46 @@
         <v>120</v>
       </c>
       <c r="D22" s="7">
-        <v>140942</v>
+        <v>139599</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
       <c r="H22" s="7">
         <v>193</v>
       </c>
       <c r="I22" s="7">
-        <v>137892</v>
+        <v>128721</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="M22" s="7">
         <v>313</v>
       </c>
       <c r="N22" s="7">
-        <v>278834</v>
+        <v>268320</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7990,46 +8059,46 @@
         <v>461</v>
       </c>
       <c r="D23" s="7">
-        <v>466307</v>
+        <v>460096</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="H23" s="7">
         <v>729</v>
       </c>
       <c r="I23" s="7">
-        <v>643147</v>
+        <v>699001</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="M23" s="7">
         <v>1190</v>
       </c>
       <c r="N23" s="7">
-        <v>1109454</v>
+        <v>1159097</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8041,7 +8110,7 @@
         <v>581</v>
       </c>
       <c r="D24" s="7">
-        <v>607249</v>
+        <v>599695</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8056,7 +8125,7 @@
         <v>922</v>
       </c>
       <c r="I24" s="7">
-        <v>781039</v>
+        <v>827722</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8071,7 +8140,7 @@
         <v>1503</v>
       </c>
       <c r="N24" s="7">
-        <v>1388288</v>
+        <v>1427417</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8094,46 +8163,46 @@
         <v>73</v>
       </c>
       <c r="D25" s="7">
-        <v>83471</v>
+        <v>70323</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="H25" s="7">
         <v>129</v>
       </c>
       <c r="I25" s="7">
-        <v>102634</v>
+        <v>85772</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
       <c r="M25" s="7">
         <v>202</v>
       </c>
       <c r="N25" s="7">
-        <v>186106</v>
+        <v>156095</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8145,46 +8214,46 @@
         <v>670</v>
       </c>
       <c r="D26" s="7">
-        <v>749542</v>
+        <v>837219</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="H26" s="7">
         <v>910</v>
       </c>
       <c r="I26" s="7">
-        <v>749435</v>
+        <v>618152</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
       <c r="M26" s="7">
         <v>1580</v>
       </c>
       <c r="N26" s="7">
-        <v>1498976</v>
+        <v>1455372</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8196,7 +8265,7 @@
         <v>743</v>
       </c>
       <c r="D27" s="7">
-        <v>833013</v>
+        <v>907542</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8211,7 +8280,7 @@
         <v>1039</v>
       </c>
       <c r="I27" s="7">
-        <v>852069</v>
+        <v>703924</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8226,7 +8295,7 @@
         <v>1782</v>
       </c>
       <c r="N27" s="7">
-        <v>1685082</v>
+        <v>1611467</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8249,46 +8318,46 @@
         <v>569</v>
       </c>
       <c r="D28" s="7">
-        <v>613687</v>
+        <v>601689</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
       <c r="H28" s="7">
         <v>941</v>
       </c>
       <c r="I28" s="7">
-        <v>645867</v>
+        <v>624166</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="M28" s="7">
         <v>1510</v>
       </c>
       <c r="N28" s="7">
-        <v>1259555</v>
+        <v>1225855</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>610</v>
+        <v>627</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8300,46 +8369,46 @@
         <v>2683</v>
       </c>
       <c r="D29" s="7">
-        <v>2662179</v>
+        <v>2751436</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="H29" s="7">
         <v>4275</v>
       </c>
       <c r="I29" s="7">
-        <v>3070311</v>
+        <v>2954018</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>615</v>
+        <v>632</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>616</v>
+        <v>633</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>617</v>
+        <v>634</v>
       </c>
       <c r="M29" s="7">
         <v>6958</v>
       </c>
       <c r="N29" s="7">
-        <v>5732489</v>
+        <v>5705454</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>619</v>
+        <v>636</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>620</v>
+        <v>637</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8351,7 +8420,7 @@
         <v>3252</v>
       </c>
       <c r="D30" s="7">
-        <v>3275866</v>
+        <v>3353125</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8366,7 +8435,7 @@
         <v>5216</v>
       </c>
       <c r="I30" s="7">
-        <v>3716178</v>
+        <v>3578184</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8381,7 +8450,7 @@
         <v>8468</v>
       </c>
       <c r="N30" s="7">
-        <v>6992044</v>
+        <v>6931309</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
